--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="monthCard" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monthCard" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -113,6 +113,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,17 +461,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="31.44140625" customWidth="1" min="3" max="3"/>
-    <col width="47.44140625" customWidth="1" min="4" max="4"/>
-    <col width="24.21875" customWidth="1" min="5" max="5"/>
+    <col width="31.4140625" customWidth="1" min="3" max="4"/>
+    <col width="47.4140625" customWidth="1" min="5" max="5"/>
+    <col width="24.25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,20 +497,25 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>descpara</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>icon</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>sort</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -536,20 +544,25 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>(list#sep=;),int</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>(list#sep=;),string</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -591,7 +604,12 @@
           <t>c</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
@@ -625,15 +643,20 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>图标</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>价格</t>
         </is>
@@ -651,20 +674,23 @@
           <t>month_card</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="n">
+        <v>101102102</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>monthCard_desc1;monthCard_desc2;monthCard_desc3</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>icon_moth_card</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>30</v>
       </c>
     </row>
@@ -680,20 +706,23 @@
           <t>ad_card</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="n">
+        <v>101101102</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>ad_card_desc1;ad_card_desc2;ad_card_desc3</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>icon_ad_card</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>68</v>
       </c>
     </row>

--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>(list#sep=;),int</t>
+          <t>(list#sep=|),vector2</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -674,8 +674,10 @@
           <t>month_card</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>101102102</v>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>101;1000|102;100|102;5000</t>
+        </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -706,8 +708,10 @@
           <t>ad_card</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>101101102</v>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>101;1000|102;100|102;5001</t>
+        </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>

--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monthCard" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MonthCard" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HeroBox" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
-    <font>
-      <name val="等线"/>
-      <family val="2"/>
+  <fonts count="25">
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -27,26 +28,179 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
       <color theme="0"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -55,18 +209,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799432355723746"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7994323557237465"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -100,27 +440,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -194,6 +824,30 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>许天盈</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>许天盈:
+1-3为常驻盲盒
+后面的编号是现时活动开</t>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <t>许天盈:
+表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
+100-80-15=5%的概率开出整个英雄</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -237,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -272,7 +926,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -446,12 +1100,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -464,13 +1112,13 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
   <cols>
-    <col width="31.4140625" customWidth="1" min="3" max="4"/>
-    <col width="47.4140625" customWidth="1" min="5" max="5"/>
+    <col width="31.4166666666667" customWidth="1" min="3" max="4"/>
+    <col width="47.4166666666667" customWidth="1" min="5" max="5"/>
     <col width="24.25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -480,37 +1128,37 @@
           <t>##var</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>descpara</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>icon</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sort</t>
         </is>
@@ -527,37 +1175,37 @@
           <t>##type</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>(list#sep=|),vector2</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>(list#sep=;),string</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -574,37 +1222,37 @@
           <t>##group</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
@@ -621,42 +1269,42 @@
           <t>##</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>图标</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>排序</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>价格</t>
         </is>
@@ -667,33 +1315,33 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>month_card</t>
+          <t>ad_card</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>101;1000|102;100|102;5000</t>
+          <t>101;1000|102;100|102;5001</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>monthCard_desc1;monthCard_desc2;monthCard_desc3</t>
+          <t>ad_card_desc1;ad_card_desc2;ad_card_desc3</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>icon_moth_card</t>
+          <t>icon_ad_card</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -701,36 +1349,449 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>ad_card</t>
+          <t>month_card</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>101;1000|102;100|102;5001</t>
+          <t>101;1000|102;100|102;5000</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>ad_card_desc1;ad_card_desc2;ad_card_desc3</t>
+          <t>monthCard_desc1;monthCard_desc2;monthCard_desc3</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>icon_ad_card</t>
+          <t>icon_moth_card</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <cols>
+    <col width="31.4166666666667" customWidth="1" min="3" max="3"/>
+    <col width="47.4166666666667" customWidth="1" min="4" max="4"/>
+    <col width="24.25" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26.4" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>icon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sort</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>price1</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>price2</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>ensure_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>##type</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>(list#sep=|),vector2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>##group</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>十连抽</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>保底数</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26.4" customHeight="1">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>normal_box</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>normal_box_desc</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>icon_normal_box</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>290</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>501;80|201;15</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" ht="26.4" customHeight="1">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>advanced_box</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>advanced_box_desc</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>icon_advanced_box</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" t="n">
+        <v>590</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>501;60|201;25</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="26.4" customHeight="1">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>rare_box</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>rare_box_desc</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>icon_rare_box</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" t="n">
+        <v>890</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>501;40|201;20</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" ht="26.4" customHeight="1">
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>limit1_box</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>limit1_box_desc</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>icon_limit1_box</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>501;0|201;80</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
 </file>
--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="8460" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="MonthCard" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="HeroBox" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Gacha" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -36,13 +36,6 @@
       <charset val="134"/>
       <color theme="0"/>
       <sz val="9"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
@@ -540,149 +533,149 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,20 +821,22 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>许天盈</author>
+    <author>YH-01721</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <t>许天盈:
 1-3为常驻盲盒
-后面的编号是现时活动开</t>
+后面的编号是限时活动开</t>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
-        <t>许天盈:
+        <t xml:space="preserve">许天盈:
 表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
-100-80-15=5%的概率开出整个英雄</t>
+100-80-15=5%的概率开出整个英雄
+</t>
       </text>
     </comment>
   </commentList>
@@ -1111,7 +1106,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1391,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>

--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -184,12 +184,12 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -833,7 +833,7 @@
     </comment>
     <comment ref="J4" authorId="1" shapeId="0">
       <text>
-        <t xml:space="preserve">许天盈:
+        <t xml:space="preserve">许天盈:id;数量;概率(万分比)
 表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
 100-80-15=5%的概率开出整个英雄
 </t>
@@ -1386,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
@@ -1395,6 +1395,7 @@
     <col width="31.4166666666667" customWidth="1" min="3" max="3"/>
     <col width="47.4166666666667" customWidth="1" min="4" max="4"/>
     <col width="24.25" customWidth="1" min="5" max="5"/>
+    <col width="32.7777777777778" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.4" customHeight="1">
@@ -1502,7 +1503,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>(list#sep=|),vector2</t>
+          <t>(list#sep=|),vector3</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -1625,7 +1626,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="26.4" customHeight="1">
+    <row r="5">
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -1658,14 +1659,14 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>501;80|201;15</t>
+          <t>501;10;8000|201;10;1500|4;1;500</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="26.4" customHeight="1">
+    <row r="6">
       <c r="B6" t="n">
         <v>2</v>
       </c>
@@ -1698,14 +1699,14 @@
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>501;60|201;25</t>
+          <t>501;10;8000|201;10;1500|4;1;501</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="26.4" customHeight="1">
+    <row r="7">
       <c r="B7" t="n">
         <v>3</v>
       </c>
@@ -1738,14 +1739,14 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>501;40|201;20</t>
+          <t>501;10;8000|201;10;1500|4;1;502</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="26.4" customHeight="1">
+    <row r="8">
       <c r="B8" t="n">
         <v>4</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>501;0|201;80</t>
+          <t>501;10;8000|201;10;1500|4;1;503</t>
         </is>
       </c>
       <c r="K8" t="n">

--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -1379,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1788,6 +1788,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="8460" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="MonthCard" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Gacha" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Pool" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="10">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -38,150 +39,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <sz val="9"/>
@@ -192,8 +49,43 @@
       <b val="1"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -202,7 +94,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799432355723746"/>
+        <fgColor theme="8" tint="0.7994018372142705"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,194 +104,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -433,253 +139,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -693,57 +157,21 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -833,9 +261,7 @@
     </comment>
     <comment ref="J4" authorId="1" shapeId="0">
       <text>
-        <t xml:space="preserve">许天盈:id;数量;概率(万分比)
-表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
-100-80-15=5%的概率开出整个英雄
+        <t xml:space="preserve">许天盈:池子id;概率(万分比)
 </t>
       </text>
     </comment>
@@ -1095,6 +521,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1110,11 +537,11 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col width="31.4166666666667" customWidth="1" min="3" max="4"/>
-    <col width="47.4166666666667" customWidth="1" min="5" max="5"/>
-    <col width="24.25" customWidth="1" min="6" max="6"/>
+    <col width="31.44140625" customWidth="1" min="3" max="4"/>
+    <col width="47.44140625" customWidth="1" min="5" max="5"/>
+    <col width="24.21875" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1384,21 +811,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col width="31.4166666666667" customWidth="1" min="3" max="3"/>
-    <col width="47.4166666666667" customWidth="1" min="4" max="4"/>
-    <col width="24.25" customWidth="1" min="5" max="5"/>
-    <col width="32.7777777777778" customWidth="1" min="9" max="9"/>
+    <col width="31.44140625" customWidth="1" min="3" max="3"/>
+    <col width="47.44140625" customWidth="1" min="4" max="4"/>
+    <col width="24.21875" customWidth="1" min="5" max="5"/>
+    <col width="32.77734375" customWidth="1" min="9" max="9"/>
+    <col width="21.5546875" customWidth="1" min="10" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.4" customHeight="1">
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>##var</t>
@@ -1434,22 +862,27 @@
           <t>sort</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>price1</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>price2</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>power</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>ensure_pool_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ensure_count</t>
         </is>
@@ -1491,22 +924,27 @@
           <t>int</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>(list#sep=|),vector3</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>(list#sep=|),vector2</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -1548,22 +986,27 @@
           <t>c</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>c,s</t>
         </is>
@@ -1615,174 +1058,191 @@
           <t>价格</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>十连抽</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>十连抽随机池</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>保底池子id</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>保底数</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>normal_box</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>normal_box_desc</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>icon_normal_box</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="6" t="n">
         <v>290</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>501;10;8000|201;10;1500|4;1;500</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;500</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L5" s="6" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>advanced_box</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>advanced_box_desc</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>icon_advanced_box</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6" t="n">
         <v>590</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>501;10;8000|201;10;1500|4;1;501</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;501</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L6" s="6" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="B7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>rare_box</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>rare_box_desc</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>icon_rare_box</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="6" t="n">
         <v>890</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>501;10;8000|201;10;1500|4;1;502</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;502</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L7" s="6" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="B8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>limit1_box</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>limit1_box_desc</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>icon_limit1_box</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>501;10;8000|201;10;1500|4;1;503</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;503</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L8" s="6" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1790,4 +1250,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="26.5546875" customWidth="1" min="1" max="1"/>
+    <col width="53.88671875" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>##type</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>(list#sep=|),vector3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>##group</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>c,s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>实例概率池</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>501;10;8000|201;10;1500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="38.4" customHeight="1">
+      <c r="B6" s="6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>10000;1;500|10001;1;500|10002;1;500|10003;1;500|10004;1;500</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/configTools/Luban/ConfigRoot/Datas/shop.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shop.xlsx
@@ -814,7 +814,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1105,9 +1105,9 @@
       <c r="I5" s="6" t="n">
         <v>290</v>
       </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>1001;9500|2001;500</t>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>1001;10000|2001;100</t>
         </is>
       </c>
       <c r="K5" s="6" t="n">
@@ -1148,9 +1148,9 @@
       <c r="I6" s="6" t="n">
         <v>590</v>
       </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>1001;9500|2001;501</t>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;500</t>
         </is>
       </c>
       <c r="K6" s="6" t="n">
@@ -1191,9 +1191,9 @@
       <c r="I7" s="6" t="n">
         <v>890</v>
       </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>1001;9500|2001;502</t>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;500</t>
         </is>
       </c>
       <c r="K7" s="6" t="n">
@@ -1234,9 +1234,9 @@
       <c r="I8" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>1001;9500|2001;503</t>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>1001;9500|2001;500</t>
         </is>
       </c>
       <c r="K8" s="6" t="n">
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
